--- a/Mifos Automation Excels/Loan Product/485-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/485-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -292,9 +292,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -608,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -618,11 +615,11 @@
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -630,7 +627,7 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -670,7 +667,7 @@
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -827,7 +824,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="5">
@@ -968,7 +965,7 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/485-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/485-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -107,9 +107,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5">
         <v>10000</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
@@ -849,98 +849,98 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +963,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
